--- a/biology/Zoologie/Genetta_tigrina/Genetta_tigrina.xlsx
+++ b/biology/Zoologie/Genetta_tigrina/Genetta_tigrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genette tigrine
 La Genette tigrine (Genetta tigrina) est un mammifère carnivore, lié au Linsang africain et à la Civette. 
@@ -512,7 +524,9 @@
           <t>Répartition[1],[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve en Afrique subsaharienne, du Sénégal à la Somalie, et au sud en Namibie et en Afrique du Sud. Cependant, elle est absente des zones arides du sud-ouest du continent. Elle apprécie les forêts pluvieuses, la végétation riveraine et secondaire, les forêts claires humides et diverses mosaïques de forêts.  
 </t>
@@ -543,7 +557,9 @@
           <t>Description brève[1],[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C’est une genette africaine (car il y en a d’autres : la genette d’Europe, avec une répartition proche et assez similaire à la différence que ses taches sont plus alignées et de même forme / la genette d’Angola / la genette servaline / ou encore la genette géante). Sa taille est d’environ 80-110 cm dont la moitié est constituée par la queue. Le ‘poids’ varie de un à 3,5 kg. Les pattes sont assez courtes, et la crinière dorsale mal définie. Les taches noires multiples sur sa fourrure brun gris à jaunâtre sont assez irrégulières en forme, taille et répartition. Sur la queue se dessinent des anneaux noirs, mais qui ne sont pas bien rectilignes (contrairement à sa cousine la genette d’Europe). Elle se nourrit essentiellement de rongeurs, mais plus d'invertébrés et de fruits que sa cousine.</t>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La genette tigrine a été décrite en 1776 par Johann Christian Daniel von Schreber sous le protonyme Viverra tigrina[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La genette tigrine a été décrite en 1776 par Johann Christian Daniel von Schreber sous le protonyme Viverra tigrina.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Schreber, 1776 : Die Säugethiere in Abbildungen nach der Natur mit Beschreibungen, 3(17): pl. 115 [1776]; Viverra tigrina 3(25): 425 [1777]. Wolfgang Walther, Erlangen[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Schreber, 1776 : Die Säugethiere in Abbildungen nach der Natur mit Beschreibungen, 3(17): pl. 115 ; Viverra tigrina 3(25): 425 . Wolfgang Walther, Erlangen.</t>
         </is>
       </c>
     </row>
@@ -635,7 +655,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres espèces de son genre Genetta, elle est nocturne et arboricole.
 </t>
